--- a/NVIDIA_CUDA-5.0_Samples/7_CUDALibraries/batchCUBLAS/性能测试.xlsx
+++ b/NVIDIA_CUDA-5.0_Samples/7_CUDALibraries/batchCUBLAS/性能测试.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
   <si>
     <t>数据大小</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,10 @@
   <si>
     <t>mult-stream
 /sing-stream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BATCH=1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:H48"/>
+  <dimension ref="B3:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -551,648 +555,688 @@
         <v>5</v>
       </c>
     </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2">
+        <v>7</v>
+      </c>
+      <c r="F9" s="2">
+        <v>8</v>
+      </c>
+      <c r="G9" s="2">
+        <v>9</v>
+      </c>
+      <c r="H9" s="2">
+        <v>10</v>
+      </c>
+    </row>
     <row r="10" spans="2:8">
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>0.12</v>
+      </c>
+      <c r="F10">
+        <v>0.13</v>
+      </c>
+      <c r="G10">
+        <v>0.5</v>
+      </c>
+      <c r="H10">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
+    <row r="13" spans="2:8" ht="23.25" customHeight="1">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D13" s="2">
         <v>6</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E13" s="2">
         <v>7</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F13" s="2">
         <v>8</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G13" s="2">
         <v>9</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H13" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="2" t="s">
+    <row r="14" spans="2:8">
+      <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C14" s="2">
         <v>0.1</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D14" s="2">
         <v>0.1</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E14" s="2">
         <v>0.13</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F14" s="2">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G14" s="2">
         <v>1.2</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H14" s="2">
         <v>3.3</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="27">
-      <c r="B13" s="3" t="s">
+    <row r="15" spans="2:8" ht="27">
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C15" s="2">
         <v>0.16</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D15" s="2">
         <v>0.2</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E15" s="2">
         <v>0.4</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F15" s="2">
         <v>1.4</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G15" s="2">
         <v>5.3</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H15" s="2">
         <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="27">
-      <c r="B14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.31</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="G14" s="2">
-        <v>4</v>
-      </c>
-      <c r="H14" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1.7</v>
-      </c>
-      <c r="G15" s="2">
-        <v>12</v>
-      </c>
-      <c r="H15" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="27">
       <c r="B16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4</v>
+      </c>
+      <c r="H16" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="G17" s="2">
+        <v>12</v>
+      </c>
+      <c r="H17" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="27">
+      <c r="B18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="5">
-        <f>C13/C15</f>
+      <c r="C18" s="5">
+        <f>C15/C17</f>
         <v>1.5999999999999999</v>
       </c>
-      <c r="D16" s="5">
-        <f t="shared" ref="D16:H16" si="0">D13/D15</f>
+      <c r="D18" s="5">
+        <f t="shared" ref="D18:H18" si="0">D15/D17</f>
         <v>1.4285714285714286</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E18" s="5">
         <f t="shared" si="0"/>
         <v>1.3333333333333335</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F18" s="5">
         <f t="shared" si="0"/>
         <v>0.82352941176470584</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G18" s="5">
         <f t="shared" si="0"/>
         <v>0.44166666666666665</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H18" s="5">
         <f t="shared" si="0"/>
         <v>0.28125</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="27">
-      <c r="B17" s="3" t="s">
+    <row r="19" spans="2:8" ht="27">
+      <c r="B19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="5">
-        <f>C14/C15</f>
+      <c r="C19" s="5">
+        <f>C16/C17</f>
         <v>1.2</v>
       </c>
-      <c r="D17" s="5">
-        <f t="shared" ref="D17:H17" si="1">D14/D15</f>
+      <c r="D19" s="5">
+        <f t="shared" ref="D19:H19" si="1">D16/D17</f>
         <v>1.2857142857142856</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E19" s="5">
         <f t="shared" si="1"/>
         <v>1.0333333333333334</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F19" s="5">
         <f t="shared" si="1"/>
         <v>0.54117647058823537</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G19" s="5">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H19" s="5">
         <f t="shared" si="1"/>
         <v>0.28125</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="27">
-      <c r="B18" s="3" t="s">
+    <row r="20" spans="2:8" ht="27">
+      <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="8">
-        <f>C13/C14</f>
+      <c r="C20" s="8">
+        <f>C15/C16</f>
         <v>1.3333333333333335</v>
       </c>
-      <c r="D18" s="8">
-        <f t="shared" ref="D18:H18" si="2">D13/D14</f>
+      <c r="D20" s="8">
+        <f t="shared" ref="D20:H20" si="2">D15/D16</f>
         <v>1.1111111111111112</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E20" s="8">
         <f t="shared" si="2"/>
         <v>1.2903225806451615</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F20" s="8">
         <f t="shared" si="2"/>
         <v>1.5217391304347825</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G20" s="8">
         <f t="shared" si="2"/>
         <v>1.325</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H20" s="8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
-      <c r="B21" t="s">
+    <row r="23" spans="2:8">
+      <c r="B23" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C23" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
+    <row r="24" spans="2:8">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D24" s="2">
         <v>6</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E24" s="2">
         <v>7</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F24" s="2">
         <v>8</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G24" s="2">
         <v>9</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H24" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="2" t="s">
+    <row r="25" spans="2:8">
+      <c r="B25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C25" s="2">
         <v>0.1</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D25" s="2">
         <v>0.1</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E25" s="2">
         <v>0.12</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F25" s="2">
         <v>0.25</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G25" s="2">
         <v>0.8</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H25" s="2">
         <v>3.3</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="27">
-      <c r="B24" s="3" t="s">
+    <row r="26" spans="2:8" ht="27">
+      <c r="B26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C26" s="2">
         <v>0.84</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D26" s="2">
         <v>1</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E26" s="2">
         <v>3</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F26" s="2">
         <v>13</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G26" s="2">
         <v>48</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H26" s="2">
         <v>270</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="27">
-      <c r="B25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.91</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="F25" s="2">
-        <v>5</v>
-      </c>
-      <c r="G25" s="2">
-        <v>35</v>
-      </c>
-      <c r="H25" s="2">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0.37</v>
-      </c>
-      <c r="E26" s="7">
-        <v>2.1</v>
-      </c>
-      <c r="F26" s="2">
-        <v>16</v>
-      </c>
-      <c r="G26" s="2">
-        <v>120</v>
-      </c>
-      <c r="H26" s="2">
-        <v>953</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="27">
       <c r="B27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="F27" s="2">
+        <v>5</v>
+      </c>
+      <c r="G27" s="2">
+        <v>35</v>
+      </c>
+      <c r="H27" s="2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="E28" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="F28" s="2">
+        <v>16</v>
+      </c>
+      <c r="G28" s="2">
+        <v>120</v>
+      </c>
+      <c r="H28" s="2">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="27">
+      <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="5">
-        <f>C24/C26</f>
+      <c r="C29" s="5">
+        <f>C26/C28</f>
         <v>8.3999999999999986</v>
       </c>
-      <c r="D27" s="5">
-        <f t="shared" ref="D27:H27" si="3">D24/D26</f>
+      <c r="D29" s="5">
+        <f t="shared" ref="D29:H29" si="3">D26/D28</f>
         <v>2.7027027027027026</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E29" s="5">
         <f t="shared" si="3"/>
         <v>1.4285714285714286</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F29" s="5">
         <f t="shared" si="3"/>
         <v>0.8125</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G29" s="5">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H29" s="5">
         <f t="shared" si="3"/>
         <v>0.2833158447009444</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="27">
-      <c r="B28" s="3" t="s">
+    <row r="30" spans="2:8" ht="27">
+      <c r="B30" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="5">
-        <f>C25/C26</f>
+      <c r="C30" s="5">
+        <f>C27/C28</f>
         <v>9.1</v>
       </c>
-      <c r="D28" s="5">
-        <f t="shared" ref="D28:H28" si="4">D25/D26</f>
+      <c r="D30" s="5">
+        <f t="shared" ref="D30:H30" si="4">D27/D28</f>
         <v>2.7027027027027026</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E30" s="5">
         <f t="shared" si="4"/>
         <v>0.76190476190476186</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F30" s="5">
         <f t="shared" si="4"/>
         <v>0.3125</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G30" s="5">
         <f t="shared" si="4"/>
         <v>0.29166666666666669</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H30" s="5">
         <f t="shared" si="4"/>
         <v>0.26442812172088143</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
-      <c r="B31" t="s">
+    <row r="33" spans="2:8">
+      <c r="B33" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C33" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2" t="s">
+    <row r="34" spans="2:8">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D34" s="2">
         <v>6</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E34" s="2">
         <v>7</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F34" s="2">
         <v>8</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G34" s="2">
         <v>9</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H34" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="2" t="s">
+    <row r="35" spans="2:8">
+      <c r="B35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C35" s="2">
         <v>0.1</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D35" s="2">
         <v>0.1</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E35" s="2">
         <v>0.12</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F35" s="2">
         <v>0.28000000000000003</v>
-      </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="2:8" ht="27">
-      <c r="B34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="2">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="D34" s="2">
-        <v>11</v>
-      </c>
-      <c r="E34" s="2">
-        <v>28</v>
-      </c>
-      <c r="F34" s="2">
-        <v>120</v>
-      </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="2:8" ht="27">
-      <c r="B35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="2">
-        <v>13</v>
-      </c>
-      <c r="D35" s="2">
-        <v>15</v>
-      </c>
-      <c r="E35" s="2">
-        <v>27</v>
-      </c>
-      <c r="F35" s="2">
-        <v>190</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="2:8">
-      <c r="B36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="D36" s="7">
-        <v>2.7</v>
-      </c>
-      <c r="E36" s="7">
-        <v>20</v>
+    <row r="36" spans="2:8" ht="27">
+      <c r="B36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D36" s="2">
+        <v>11</v>
+      </c>
+      <c r="E36" s="2">
+        <v>28</v>
       </c>
       <c r="F36" s="2">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="2:8" ht="27">
       <c r="B37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="2">
+        <v>13</v>
+      </c>
+      <c r="D37" s="2">
+        <v>15</v>
+      </c>
+      <c r="E37" s="2">
+        <v>27</v>
+      </c>
+      <c r="F37" s="2">
+        <v>190</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D38" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="E38" s="7">
+        <v>20</v>
+      </c>
+      <c r="F38" s="2">
+        <v>150</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="2:8" ht="27">
+      <c r="B39" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="6">
-        <f>C34/C36</f>
+      <c r="C39" s="6">
+        <f>C36/C38</f>
         <v>12.266666666666666</v>
       </c>
-      <c r="D37" s="4">
-        <f t="shared" ref="D37:F37" si="5">D34/D36</f>
+      <c r="D39" s="4">
+        <f t="shared" ref="D39:F39" si="5">D36/D38</f>
         <v>4.0740740740740735</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E39" s="4">
         <f t="shared" si="5"/>
         <v>1.4</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F39" s="4">
         <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="2:8" ht="27">
-      <c r="B38" s="3" t="s">
+      <c r="G39" s="5"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="2:8" ht="27">
+      <c r="B40" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="6">
-        <f>C35/C36</f>
+      <c r="C40" s="6">
+        <f>C37/C38</f>
         <v>17.333333333333332</v>
       </c>
-      <c r="D38" s="4">
-        <f t="shared" ref="D38:F38" si="6">D35/D36</f>
+      <c r="D40" s="4">
+        <f t="shared" ref="D40:F40" si="6">D37/D38</f>
         <v>5.5555555555555554</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E40" s="4">
         <f t="shared" si="6"/>
         <v>1.35</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F40" s="4">
         <f t="shared" si="6"/>
         <v>1.2666666666666666</v>
       </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="B41" t="s">
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C43" s="1">
         <v>10000</v>
       </c>
     </row>
-    <row r="42" spans="2:8">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2" t="s">
+    <row r="44" spans="2:8">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D44" s="2">
         <v>6</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E44" s="2">
         <v>7</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F44" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:8">
-      <c r="B43" s="2" t="s">
+    <row r="45" spans="2:8">
+      <c r="B45" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C45" s="2">
         <v>0.1</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D45" s="2">
         <v>0.1</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="2:8" ht="27">
-      <c r="B44" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="2">
-        <v>138</v>
-      </c>
-      <c r="D44" s="2">
-        <v>317</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="2:8" ht="27">
-      <c r="B45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="2">
-        <v>508</v>
-      </c>
-      <c r="D45" s="2">
-        <v>686</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="2:8">
-      <c r="B46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="7">
-        <v>4</v>
-      </c>
-      <c r="D46" s="7">
-        <v>26</v>
+    <row r="46" spans="2:8" ht="27">
+      <c r="B46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="2">
+        <v>138</v>
+      </c>
+      <c r="D46" s="2">
+        <v>317</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="2:8" ht="27">
       <c r="B47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="2">
+        <v>508</v>
+      </c>
+      <c r="D47" s="2">
+        <v>686</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="7">
+        <v>4</v>
+      </c>
+      <c r="D48" s="7">
+        <v>26</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="2:6" ht="27">
+      <c r="B49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="6">
-        <f>C44/C46</f>
+      <c r="C49" s="6">
+        <f>C46/C48</f>
         <v>34.5</v>
       </c>
-      <c r="D47" s="6">
-        <f>D44/D46</f>
+      <c r="D49" s="6">
+        <f>D46/D48</f>
         <v>12.192307692307692</v>
       </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="2:8" ht="27">
-      <c r="B48" s="3" t="s">
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="2:6" ht="27">
+      <c r="B50" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="6">
-        <f>C45/C46</f>
+      <c r="C50" s="6">
+        <f>C47/C48</f>
         <v>127</v>
       </c>
-      <c r="D48" s="6">
-        <f t="shared" ref="D48" si="7">D45/D46</f>
+      <c r="D50" s="6">
+        <f t="shared" ref="D50" si="7">D47/D48</f>
         <v>26.384615384615383</v>
       </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="5"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
